--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>http://investor.frontier.com/releases.cfm</t>
   </si>
   <si>
-    <t>https://frontier.com/corporate/pressroom</t>
-  </si>
-  <si>
     <t>Public_Inspection_Files_Url</t>
   </si>
   <si>
@@ -753,6 +750,9 @@
   </si>
   <si>
     <t>81398647071107145</t>
+  </si>
+  <si>
+    <t>https://frontier.com/corporate/news/home</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1304,7 +1304,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -1313,43 +1313,43 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1357,22 +1357,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1393,40 +1393,40 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1441,22 +1441,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1465,16 +1465,16 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="Q4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -1485,22 +1485,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1521,22 +1521,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1549,10 +1549,10 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1560,22 +1560,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1590,7 +1590,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1598,22 +1598,22 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1634,22 +1634,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1687,11 +1687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX7" sqref="AX7"/>
+      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,13 +1775,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>28</v>
@@ -1817,7 +1817,7 @@
         <v>39</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>40</v>
@@ -1844,121 +1844,121 @@
         <v>42</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK1" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="AH1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="AL1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AU1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AV1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AX1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AY1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="AY1" s="14" t="s">
-        <v>172</v>
-      </c>
       <c r="AZ1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BA1" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BD1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="BE1" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BF1" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BH1" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI1" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BJ1" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BK1" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BL1" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BM1" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
@@ -1972,34 +1972,34 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -2059,10 +2059,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -2075,22 +2075,22 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="P3" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="R3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -2150,10 +2150,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -2172,25 +2172,25 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -2243,10 +2243,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -2272,7 +2272,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB5" s="4" t="s">
         <v>49</v>
@@ -2281,19 +2281,19 @@
         <v>50</v>
       </c>
       <c r="AD5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AF5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
@@ -2332,16 +2332,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -2375,31 +2375,31 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
@@ -2429,16 +2429,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -2481,28 +2481,28 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="AS7" s="17" t="s">
+      <c r="AT7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AT7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU7" s="4" t="s">
+      <c r="AV7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AW7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AW7" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="AX7" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AY7" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -2524,16 +2524,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -2584,7 +2584,7 @@
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
@@ -2605,16 +2605,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -2666,7 +2666,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
@@ -2686,16 +2686,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -2748,7 +2748,7 @@
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
@@ -2767,16 +2767,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -2830,7 +2830,7 @@
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
@@ -2848,16 +2848,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -2912,7 +2912,7 @@
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
       <c r="BD12" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
@@ -2929,16 +2929,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -2994,10 +2994,10 @@
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
       <c r="BE13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF13" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="BF13" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
@@ -3012,16 +3012,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
@@ -3079,7 +3079,7 @@
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
@@ -3093,16 +3093,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
@@ -3161,10 +3161,10 @@
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI15" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BI15" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
@@ -3176,16 +3176,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -3246,10 +3246,10 @@
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
       <c r="BJ16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK16" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="BK16" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="BL16" s="2"/>
       <c r="BM16" s="2"/>
@@ -3259,16 +3259,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
@@ -3331,10 +3331,10 @@
       <c r="BJ17" s="2"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM17" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="BM17" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3438,13 +3438,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>20</v>
@@ -3453,13 +3453,13 @@
         <v>21</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3467,16 +3467,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>19</v>
@@ -3484,13 +3484,13 @@
       <c r="G2" s="25"/>
       <c r="H2" s="23"/>
       <c r="I2" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3498,16 +3498,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>19</v>
@@ -3523,25 +3523,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -3552,16 +3552,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>19</v>
@@ -3577,16 +3577,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>19</v>
@@ -3602,16 +3602,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>19</v>
@@ -3627,16 +3627,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>19</v>
@@ -3652,16 +3652,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>19</v>
@@ -3677,16 +3677,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>19</v>
@@ -3755,52 +3755,52 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="33" t="s">
-        <v>139</v>
-      </c>
       <c r="M1" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>46</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3808,22 +3808,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
@@ -3837,23 +3837,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -3872,16 +3872,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>19</v>
@@ -3889,7 +3889,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
@@ -3907,16 +3907,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>19</v>
@@ -3925,7 +3925,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -3942,16 +3942,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>19</v>
@@ -3961,7 +3961,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -3977,16 +3977,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>19</v>
@@ -3997,7 +3997,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -4012,16 +4012,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>19</v>
@@ -4045,16 +4045,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>19</v>
@@ -4078,16 +4078,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>19</v>
@@ -4111,16 +4111,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>19</v>
@@ -4132,7 +4132,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
       <c r="M11" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
@@ -4146,16 +4146,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>19</v>
@@ -4168,7 +4168,7 @@
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -4181,16 +4181,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>19</v>
@@ -4204,7 +4204,7 @@
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
       <c r="O13" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
@@ -4216,16 +4216,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>19</v>
@@ -4240,7 +4240,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
       <c r="P14" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
@@ -4251,16 +4251,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>19</v>
@@ -4276,7 +4276,7 @@
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
@@ -4286,16 +4286,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>19</v>
@@ -4312,7 +4312,7 @@
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S16" s="28"/>
     </row>
@@ -4321,16 +4321,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>19</v>
@@ -4348,7 +4348,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
       <c r="S17" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="260">
   <si>
     <t>TC_NO</t>
   </si>
@@ -118,18 +118,6 @@
     <t>Ftrfrank1+automationtest01@gmail.com</t>
   </si>
   <si>
-    <t>Oct 17, 2017</t>
-  </si>
-  <si>
-    <t>10/17/17 - 11/16/17</t>
-  </si>
-  <si>
-    <t>$719.95</t>
-  </si>
-  <si>
-    <t>Oct 11, 2017</t>
-  </si>
-  <si>
     <t>TC04</t>
   </si>
   <si>
@@ -421,9 +409,6 @@
     <t>https://qat01.frontier.com/shop/frontier-secure</t>
   </si>
   <si>
-    <t>https://qat01.frontier.com/corporate/movers</t>
-  </si>
-  <si>
     <t>https://qat01.frontier.com/resources/discount-programs</t>
   </si>
   <si>
@@ -475,24 +460,12 @@
     <t>http://investor.frontier.com/</t>
   </si>
   <si>
-    <t>http://investor.frontier.com/releases.cfm</t>
-  </si>
-  <si>
-    <t>https://qat01.frontier.com/corporate/careers/overview</t>
-  </si>
-  <si>
-    <t>https://qat01.frontier.com/corporate/suppliers</t>
-  </si>
-  <si>
     <t>https://frontier.com/corporate/news/home</t>
   </si>
   <si>
     <t>https://qat01.frontier.com/makingadifference</t>
   </si>
   <si>
-    <t>https://qat01.frontier.com/corporate/pif/public-inspection-files</t>
-  </si>
-  <si>
     <t>005_CC_.COM_Desktop_NSS_Res_Footers_FrontierSites</t>
   </si>
   <si>
@@ -797,6 +770,39 @@
   </si>
   <si>
     <t>https://qat01.frontier.com/resources/movers</t>
+  </si>
+  <si>
+    <t>https://qat01.frontier.com/corporate/news/home</t>
+  </si>
+  <si>
+    <t>https://frontier.silkroad.com/epostings/</t>
+  </si>
+  <si>
+    <t>https://qat01.frontier.com/corporate/company/supplier</t>
+  </si>
+  <si>
+    <t>https://qat01.frontier.com/corporate/responsibility/inspection-files/home</t>
+  </si>
+  <si>
+    <t>Zipcode1</t>
+  </si>
+  <si>
+    <t>75024</t>
+  </si>
+  <si>
+    <t>Dec 13, 2017</t>
+  </si>
+  <si>
+    <t>12/13/17 - 1/12/18</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$90.98</t>
+  </si>
+  <si>
+    <t>Jan 8, 2018</t>
   </si>
 </sst>
 </file>
@@ -1324,11 +1330,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,22 +1488,22 @@
         <v>27</v>
       </c>
       <c r="H3" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>32</v>
-      </c>
       <c r="K3" s="26" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
@@ -1510,10 +1516,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>23</v>
@@ -1537,16 +1543,16 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
@@ -1555,10 +1561,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>23</v>
@@ -1592,10 +1598,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>23</v>
@@ -1623,19 +1629,19 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S6" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>23</v>
@@ -1665,16 +1671,16 @@
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
       <c r="T7" s="33" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="U7" s="26"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>23</v>
@@ -1708,16 +1714,16 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>25</v>
@@ -1745,10 +1751,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>23</v>
@@ -1760,7 +1766,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>27</v>
@@ -1779,15 +1785,15 @@
       <c r="S10" s="26"/>
       <c r="T10" s="33"/>
       <c r="U10" s="34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>23</v>
@@ -1799,10 +1805,10 @@
         <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -1821,10 +1827,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>23</v>
@@ -1902,11 +1908,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1950,7 @@
     <col min="31" max="31" width="44" style="29" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="39.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="39.7109375" style="29" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="69.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="23.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="21.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28.7109375" style="29" bestFit="1" customWidth="1"/>
@@ -1991,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2000,222 +2006,222 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="T1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="V1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="W1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AA1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AB1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AC1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AD1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AI1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AK1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AL1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AR1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AS1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AT1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AU1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="BA1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="BB1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BC1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BD1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="BA1" s="14" t="s">
+      <c r="BE1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BF1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BG1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BH1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BI1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BK1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="BH1" s="14" t="s">
+      <c r="BL1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BM1" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="BJ1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="I2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="J2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
@@ -2269,13 +2275,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -2291,22 +2297,22 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
       <c r="N3" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
@@ -2360,13 +2366,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -2388,25 +2394,25 @@
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
       <c r="T4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="AA4" s="26"/>
       <c r="AB4" s="26"/>
@@ -2450,16 +2456,16 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -2488,28 +2494,28 @@
       <c r="Y5" s="26"/>
       <c r="Z5" s="26"/>
       <c r="AA5" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
+      </c>
+      <c r="AC5" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD5" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE5" s="35" t="s">
+        <v>251</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="AH5" s="35" t="s">
+        <v>252</v>
       </c>
       <c r="AI5" s="26"/>
       <c r="AJ5" s="26"/>
@@ -2545,16 +2551,16 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -2591,31 +2597,31 @@
       <c r="AG6" s="26"/>
       <c r="AH6" s="26"/>
       <c r="AI6" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AR6" s="26"/>
       <c r="AS6" s="26"/>
@@ -2642,16 +2648,16 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -2697,28 +2703,28 @@
       <c r="AP7" s="26"/>
       <c r="AQ7" s="26"/>
       <c r="AR7" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AS7" s="15" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AW7" s="15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AX7" s="15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AY7" s="15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AZ7" s="26"/>
       <c r="BA7" s="26"/>
@@ -2737,16 +2743,16 @@
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -2800,7 +2806,7 @@
       <c r="AX8" s="26"/>
       <c r="AY8" s="26"/>
       <c r="AZ8" s="15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="BA8" s="26"/>
       <c r="BB8" s="26"/>
@@ -2818,16 +2824,16 @@
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -2882,7 +2888,7 @@
       <c r="AY9" s="26"/>
       <c r="AZ9" s="26"/>
       <c r="BA9" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="BB9" s="26"/>
       <c r="BC9" s="26"/>
@@ -2899,16 +2905,16 @@
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -2964,7 +2970,7 @@
       <c r="AZ10" s="26"/>
       <c r="BA10" s="26"/>
       <c r="BB10" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="BC10" s="26"/>
       <c r="BD10" s="26"/>
@@ -2980,16 +2986,16 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -3046,7 +3052,7 @@
       <c r="BA11" s="26"/>
       <c r="BB11" s="26"/>
       <c r="BC11" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="BD11" s="26"/>
       <c r="BE11" s="26"/>
@@ -3061,16 +3067,16 @@
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -3128,7 +3134,7 @@
       <c r="BB12" s="26"/>
       <c r="BC12" s="26"/>
       <c r="BD12" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="BE12" s="26"/>
       <c r="BF12" s="26"/>
@@ -3142,16 +3148,16 @@
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -3210,10 +3216,10 @@
       <c r="BC13" s="26"/>
       <c r="BD13" s="26"/>
       <c r="BE13" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BF13" s="26" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BG13" s="26"/>
       <c r="BH13" s="26"/>
@@ -3225,16 +3231,16 @@
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -3295,7 +3301,7 @@
       <c r="BE14" s="26"/>
       <c r="BF14" s="26"/>
       <c r="BG14" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="BH14" s="26"/>
       <c r="BI14" s="26"/>
@@ -3306,16 +3312,16 @@
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -3377,10 +3383,10 @@
       <c r="BF15" s="26"/>
       <c r="BG15" s="26"/>
       <c r="BH15" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="BI15" s="26" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="26"/>
@@ -3389,16 +3395,16 @@
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -3462,26 +3468,26 @@
       <c r="BH16" s="26"/>
       <c r="BI16" s="26"/>
       <c r="BJ16" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="BK16" s="26" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="BL16" s="26"/>
       <c r="BM16" s="26"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -3547,10 +3553,10 @@
       <c r="BJ17" s="26"/>
       <c r="BK17" s="26"/>
       <c r="BL17" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="BM17" s="26" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3618,13 +3624,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,14 +3643,15 @@
     <col min="6" max="6" width="21.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.7109375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="6.7109375" style="24"/>
+    <col min="9" max="9" width="9.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="6.7109375" style="24" customWidth="1"/>
+    <col min="17" max="16384" width="6.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3655,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>3</v>
@@ -3670,27 +3677,30 @@
         <v>6</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>24</v>
@@ -3701,27 +3711,30 @@
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
       <c r="I2" s="22" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>24</v>
@@ -3734,19 +3747,20 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>24</v>
@@ -3755,7 +3769,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>27</v>
@@ -3763,19 +3777,20 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>24</v>
@@ -3788,19 +3803,20 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>24</v>
@@ -3813,19 +3829,20 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>24</v>
@@ -3838,19 +3855,20 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>24</v>
@@ -3863,19 +3881,20 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>24</v>
@@ -3888,19 +3907,20 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>24</v>
@@ -3913,6 +3933,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3931,10 +3952,10 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3982,57 +4003,57 @@
         <v>4</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>221</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>24</v>
@@ -4041,7 +4062,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -4055,13 +4076,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>24</v>
@@ -4071,7 +4092,7 @@
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -4090,13 +4111,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>24</v>
@@ -4107,7 +4128,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -4122,16 +4143,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>24</v>
@@ -4143,7 +4164,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
@@ -4157,16 +4178,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>24</v>
@@ -4179,7 +4200,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
@@ -4192,16 +4213,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>24</v>
@@ -4214,8 +4235,8 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="2" t="s">
-        <v>132</v>
+      <c r="L7" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
@@ -4227,16 +4248,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>24</v>
@@ -4260,16 +4281,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>24</v>
@@ -4293,16 +4314,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>24</v>
@@ -4326,16 +4347,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>24</v>
@@ -4350,7 +4371,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
@@ -4361,16 +4382,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>24</v>
@@ -4386,7 +4407,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
@@ -4396,16 +4417,16 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>24</v>
@@ -4422,7 +4443,7 @@
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
@@ -4431,16 +4452,16 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>24</v>
@@ -4458,7 +4479,7 @@
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="P14" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
@@ -4466,16 +4487,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>24</v>
@@ -4494,23 +4515,23 @@
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>24</v>
@@ -4530,22 +4551,22 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>24</v>
@@ -4566,7 +4587,7 @@
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
       <c r="S17" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4607,40 +4628,40 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>

--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="259">
   <si>
     <t>TC_NO</t>
   </si>
@@ -790,19 +790,16 @@
     <t>75024</t>
   </si>
   <si>
-    <t>Dec 13, 2017</t>
-  </si>
-  <si>
-    <t>12/13/17 - 1/12/18</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>$90.98</t>
-  </si>
-  <si>
     <t>Jan 8, 2018</t>
+  </si>
+  <si>
+    <t>1/13/18 - 2/12/18</t>
+  </si>
+  <si>
+    <t>$140.97</t>
+  </si>
+  <si>
+    <t>Jan 13, 2018</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +1328,10 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1435,7 @@
       <c r="C2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="26" t="s">
@@ -1491,7 +1488,7 @@
         <v>247</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>256</v>
@@ -1500,10 +1497,10 @@
         <v>257</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
@@ -1900,7 +1897,7 @@
     <hyperlink ref="D12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="261">
   <si>
     <t>TC_NO</t>
   </si>
@@ -800,6 +800,12 @@
   </si>
   <si>
     <t>Jan 13, 2018</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
+  </si>
+  <si>
+    <t>Ftrfrank1+videoadd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -992,7 +998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -1044,6 +1050,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1325,13 +1333,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1435,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>22</v>
@@ -1464,7 +1472,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>29</v>
@@ -1513,7 +1521,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>32</v>
@@ -1558,7 +1566,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>37</v>
@@ -1595,7 +1603,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>39</v>
@@ -1635,7 +1643,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>43</v>
@@ -1674,7 +1682,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>46</v>
@@ -1711,7 +1719,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>48</v>
@@ -1748,7 +1756,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>51</v>
@@ -1787,7 +1795,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>55</v>
@@ -1824,7 +1832,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>59</v>
@@ -1856,27 +1864,1858 @@
       <c r="U12" s="26"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="26"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
+      <c r="U64" s="26"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="26"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="26"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
+      <c r="U67" s="26"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="26"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="26"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="26"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="26"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="26"/>
+      <c r="U74" s="26"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="26"/>
+      <c r="U76" s="26"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="26"/>
+      <c r="U78" s="26"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="26"/>
+      <c r="U79" s="26"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="26"/>
+      <c r="U80" s="26"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="26"/>
+      <c r="T81" s="26"/>
+      <c r="U81" s="26"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26"/>
+      <c r="T82" s="26"/>
+      <c r="U82" s="26"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="26"/>
+      <c r="U83" s="26"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26"/>
+      <c r="S84" s="26"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="26"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="26"/>
+      <c r="U85" s="26"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="26"/>
+      <c r="U86" s="26"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="26"/>
+      <c r="T87" s="26"/>
+      <c r="U87" s="26"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="26"/>
+      <c r="T88" s="26"/>
+      <c r="U88" s="26"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="26"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="26"/>
+      <c r="U90" s="26"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="26"/>
+      <c r="U91" s="26"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1895,9 +3734,11 @@
     <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="F11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="D12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{BEEBE115-D8A8-4201-AA16-C62873309B44}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{317FE67C-A534-4EC6-8743-57569AA98680}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -832,19 +832,19 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="14" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" style="14" bestFit="1" customWidth="1"/>

--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="128">
   <si>
     <t>TC_NO</t>
   </si>
@@ -392,13 +387,28 @@
   </si>
   <si>
     <t>Ftrfrank1+videoadd@gmail.com</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomEssentialsPackage</t>
+  </si>
+  <si>
+    <t>ftrfrank1+feb18@gmail.com</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomSportsPackage</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +458,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -523,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -548,6 +564,9 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -821,21 +840,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:F1048576"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,13 +1362,27 @@
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1362,13 +1395,27 @@
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -1381,13 +1428,27 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1400,13 +1461,27 @@
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2826,31 +2901,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D14" r:id="rId16" xr:uid="{BEEBE115-D8A8-4201-AA16-C62873309B44}"/>
-    <hyperlink ref="F14" r:id="rId17" xr:uid="{317FE67C-A534-4EC6-8743-57569AA98680}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="F8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="D10" r:id="rId11"/>
+    <hyperlink ref="F10" r:id="rId12"/>
+    <hyperlink ref="D11" r:id="rId13"/>
+    <hyperlink ref="F11" r:id="rId14"/>
+    <hyperlink ref="D12" r:id="rId15"/>
+    <hyperlink ref="D14" r:id="rId16"/>
+    <hyperlink ref="F14" r:id="rId17"/>
+    <hyperlink ref="D15" r:id="rId18"/>
+    <hyperlink ref="F15" r:id="rId19"/>
+    <hyperlink ref="D16" r:id="rId20"/>
+    <hyperlink ref="F16" r:id="rId21"/>
+    <hyperlink ref="D17" r:id="rId22"/>
+    <hyperlink ref="F17" r:id="rId23"/>
+    <hyperlink ref="D18" r:id="rId24"/>
+    <hyperlink ref="F18" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3214,9 +3297,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="E17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3224,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3538,10 +3621,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3549,7 +3632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,9 +3943,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="D17" r:id="rId3" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D16" r:id="rId2"/>
+    <hyperlink ref="D17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3870,7 +3953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB998C66-977A-4807-AA2C-B7D0A11BF070}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8ED93D-0FBB-4F8A-9F35-3785F5CCC2B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
-    <sheet name="Footers" sheetId="2" r:id="rId2"/>
-    <sheet name="Headers" sheetId="3" r:id="rId3"/>
-    <sheet name="TabSelections" sheetId="4" r:id="rId4"/>
-    <sheet name="TestData" sheetId="5" r:id="rId5"/>
+    <sheet name="Chat" sheetId="7" r:id="rId2"/>
+    <sheet name="Footers" sheetId="2" r:id="rId3"/>
+    <sheet name="Headers" sheetId="3" r:id="rId4"/>
+    <sheet name="TabSelections" sheetId="4" r:id="rId5"/>
+    <sheet name="Ecommerce" sheetId="6" r:id="rId6"/>
+    <sheet name="MultiLang" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="203">
   <si>
     <t>TC_NO</t>
   </si>
@@ -140,9 +148,6 @@
     <t>007_CC_REG_RES_FCOM_MyProfile-UnLinkAccount</t>
   </si>
   <si>
-    <t>72784943010808015</t>
-  </si>
-  <si>
     <t>TC10</t>
   </si>
   <si>
@@ -182,9 +187,6 @@
     <t>TC14</t>
   </si>
   <si>
-    <t>018_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video ADD</t>
-  </si>
-  <si>
     <t>Env</t>
   </si>
   <si>
@@ -350,65 +352,343 @@
     <t>016_CC_.COM_ENGLISH_NSS_Res_TS_Support_ContactUs</t>
   </si>
   <si>
-    <t>81398647071107145</t>
-  </si>
-  <si>
-    <t>Linked A/C</t>
-  </si>
-  <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>9191</t>
-  </si>
-  <si>
-    <t>219-324-3764-102891-5</t>
-  </si>
-  <si>
-    <t>3800</t>
-  </si>
-  <si>
     <t>7278494301</t>
   </si>
   <si>
-    <t>219-089-7455-081683-5</t>
-  </si>
-  <si>
     <t>Zipcode1</t>
   </si>
   <si>
     <t>75024</t>
   </si>
   <si>
-    <t>$140.97</t>
-  </si>
-  <si>
-    <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
-  </si>
-  <si>
-    <t>Ftrfrank1+videoadd@gmail.com</t>
-  </si>
-  <si>
     <t>002_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomEssentialsPackage</t>
   </si>
   <si>
-    <t>ftrfrank1+feb18@gmail.com</t>
-  </si>
-  <si>
     <t>003_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomSportsPackage</t>
   </si>
   <si>
-    <t>004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage</t>
-  </si>
-  <si>
-    <t>005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage</t>
+    <t>Add Video Package</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+020_CC_.COM_SS_AS_E-Com_AVP_Add Preferred Video Package</t>
+    </r>
+  </si>
+  <si>
+    <t>Ftrfrank1+videoaddtest03@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrfrank1+vv@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021_CC_.COM_SS_AS_E-Com_AVP_Add Extreme Video Package</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>022_CC_.COM_SS_AS_E-Com_AVP_Add Ultimate Video Package</t>
+    </r>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_ErrorMessaging</t>
+  </si>
+  <si>
+    <t>ftrfrank1+automation3@gmail.com</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageSelectionRetention</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_Enterprise</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_Res</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_SMB</t>
+  </si>
+  <si>
+    <t>006_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonMobileAppPage</t>
+  </si>
+  <si>
+    <t>007_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleFunctionalityonHomePage</t>
+  </si>
+  <si>
+    <t>008_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleFunctionalityonMobileAppPage</t>
+  </si>
+  <si>
+    <t>010_CC_.COM_NSS_Res_Non-LoggedInChatFlow_KnownHelpType</t>
+  </si>
+  <si>
+    <t>011_CC_.COM_NSS_Res_Non-LoggedInChatFlow_UnknownHelpType</t>
+  </si>
+  <si>
+    <t>012_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_CustomerType</t>
+  </si>
+  <si>
+    <t>013_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_SupportType</t>
+  </si>
+  <si>
+    <t>014_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_SupportTypeAutoNavtoPCS2</t>
+  </si>
+  <si>
+    <t>015_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_SupportTypeNavtoPCS1S3</t>
+  </si>
+  <si>
+    <t>016_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ServiceType</t>
+  </si>
+  <si>
+    <t>017_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ServiceTypeNavtoPCS1S4</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>018_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>019_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_Voice</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>020_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_Internet</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>021_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_TV</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>022_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_FrontierSecure</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>023_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductTypeAutoNavtoPCS2</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>024_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_AgentWindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>025_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_CTAButton</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>026_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_NonSignIn</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>027_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_NonSignIn_Agent WindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>028_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_Non SignIn_RequiredFields</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>029_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_SignIn</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>030_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_SignIn_AgentWindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>031_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_CTAButton</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>032_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_BackButton-Link</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>034_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_FreeForm</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>035_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_AgentWindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>036_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_FreeForm_RequiredField</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>037_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_CTAButton</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>038_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_BackButton-Link</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>043_CC_.COM_NSS_Res_Non-LoggedIn_Self-ServeWindow</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>047_CC_.COM_NSS_Res_Non-LoggedIn_OverlayMenuFunctionality</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>049_CC_.COM_NSS_Res_Non-LoggedIn_AutoMessages</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>01_CC_.COM_NSS_Res_Chat_SMC_URLGenerator</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>03_CC_.COM_NSS_Res_Chat_SMC_CreationofNewSocialMediaChatLandingPage</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>04_CC_.COM_NSS_Res_Chat_SMC_DisplayofNewSocialMediaChatLandingPage</t>
+  </si>
+  <si>
+    <t>https://agentqat01.ftr.com/agent/social_media_chatlink_generator#/</t>
+  </si>
+  <si>
+    <t>ftrqat01+1@gmail.com</t>
+  </si>
+  <si>
+    <t>989-584-3113-030812-5</t>
+  </si>
+  <si>
+    <t>$133.53</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_ML_ErrorMessaging</t>
+  </si>
+  <si>
+    <t>qat03</t>
+  </si>
+  <si>
+    <t>https://qat03.frontier.com/</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_NSS_Res_ML_LanguageSelectionRetention</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_NSS_Res_ML_ToggleDisplayonHomePage_Enterprise</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_NSS_Res_ML_ToggleDisplayonHomePage_Res</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_NSS_Res_ML_ToggleDisplayonHomePage_SMB</t>
+  </si>
+  <si>
+    <t>006_CC_.COM_NSS_Res_ML_ToggleDisplayonMobileAppPage</t>
+  </si>
+  <si>
+    <t>007_CC_.COM_NSS_Res_ML_ToggleFunctionalityonHomePage</t>
+  </si>
+  <si>
+    <t>008_CC_.COM_NSS_Res_ML_ToggleFunctionalityonMobileAppPage</t>
+  </si>
+  <si>
+    <t>009_CC_.COM_NSS_Res_ML_SiteWideTranslationNavigation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,17 +733,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -539,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -555,7 +851,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -564,9 +859,25 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -840,44 +1151,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="14" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" style="13" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -926,7 +1237,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -935,7 +1246,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
@@ -943,7 +1254,7 @@
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -963,7 +1274,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="16"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -982,17 +1293,17 @@
       <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>26</v>
+      <c r="F3" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -1000,7 +1311,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="16"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1041,7 +1352,7 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="16"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1074,7 +1385,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="16"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1143,8 +1454,8 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="16" t="s">
-        <v>116</v>
+      <c r="P7" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="Q7" s="12"/>
     </row>
@@ -1153,7 +1464,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
@@ -1178,21 +1489,21 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="16"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>21</v>
@@ -1211,27 +1522,27 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="16"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>23</v>
@@ -1244,30 +1555,30 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1277,79 +1588,55 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="16"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="12"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -1362,27 +1649,13 @@
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1395,27 +1668,13 @@
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -1428,27 +1687,13 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1461,27 +1706,13 @@
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2785,174 +3016,1338 @@
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F5" r:id="rId5"/>
-    <hyperlink ref="F6" r:id="rId6"/>
-    <hyperlink ref="F7" r:id="rId7"/>
-    <hyperlink ref="F8" r:id="rId8"/>
-    <hyperlink ref="D9" r:id="rId9"/>
-    <hyperlink ref="F9" r:id="rId10"/>
-    <hyperlink ref="D10" r:id="rId11"/>
-    <hyperlink ref="F10" r:id="rId12"/>
-    <hyperlink ref="D11" r:id="rId13"/>
-    <hyperlink ref="F11" r:id="rId14"/>
-    <hyperlink ref="D12" r:id="rId15"/>
-    <hyperlink ref="D14" r:id="rId16"/>
-    <hyperlink ref="F14" r:id="rId17"/>
-    <hyperlink ref="D15" r:id="rId18"/>
-    <hyperlink ref="F15" r:id="rId19"/>
-    <hyperlink ref="D16" r:id="rId20"/>
-    <hyperlink ref="F16" r:id="rId21"/>
-    <hyperlink ref="D17" r:id="rId22"/>
-    <hyperlink ref="F17" r:id="rId23"/>
-    <hyperlink ref="D18" r:id="rId24"/>
-    <hyperlink ref="F18" r:id="rId25"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" display="https://qat03.frontier.com/resources/cpni" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D11" r:id="rId6" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D13" r:id="rId8" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D14" r:id="rId9" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D15" r:id="rId10" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D16" r:id="rId11" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D17" r:id="rId12" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D18" r:id="rId13" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D21" r:id="rId16" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D24" r:id="rId19" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D25" r:id="rId20" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D26" r:id="rId21" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D27" r:id="rId22" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D28" r:id="rId23" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D29" r:id="rId24" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D30" r:id="rId25" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D31" r:id="rId26" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D32" r:id="rId27" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D33" r:id="rId28" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D34" r:id="rId29" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D35" r:id="rId30" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D36" r:id="rId31" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D37" r:id="rId32" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D38" r:id="rId33" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D39" r:id="rId34" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D40" r:id="rId35" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D43" r:id="rId36" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D44" r:id="rId37" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D42" r:id="rId38" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:F1048576"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="14" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="6.7109375" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="6.7109375" style="14"/>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="13" customWidth="1"/>
+    <col min="7" max="10" width="6.7109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="6.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2966,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2977,16 +4372,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -3000,13 +4395,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -3020,13 +4415,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -3040,13 +4435,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -3060,13 +4455,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -3080,13 +4475,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -3100,13 +4495,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -3117,16 +4512,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -3137,16 +4532,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -3157,16 +4552,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -3177,16 +4572,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -3197,16 +4592,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -3217,16 +4612,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -3237,16 +4632,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -3257,16 +4652,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -3277,16 +4672,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -3297,17 +4692,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E16" r:id="rId2"/>
-    <hyperlink ref="E17" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3346,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -3361,30 +4756,30 @@
         <v>6</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -3395,16 +4790,16 @@
       <c r="G2" s="9"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3412,13 +4807,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -3438,13 +4833,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -3453,7 +4848,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>23</v>
@@ -3468,13 +4863,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -3494,13 +4889,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -3520,13 +4915,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -3546,13 +4941,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -3569,16 +4964,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -3595,16 +4990,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -3621,331 +5016,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="14" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D16" r:id="rId2"/>
-    <hyperlink ref="D17" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3953,162 +5027,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D17" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="14"/>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31F33E6-6169-4E2D-8B72-64D2A4550D11}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{9ECFBDA7-F582-45EA-B669-B4EE0C7E70C1}"/>
+    <hyperlink ref="E3:E9" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{CF2CF369-AB42-4802-AE0D-719993256B25}"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{B50507F2-E54F-4758-A732-1A23FAEC214C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8ED93D-0FBB-4F8A-9F35-3785F5CCC2B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A254A974-0ADC-41B0-A5D7-DC0923041748}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Footers" sheetId="2" r:id="rId3"/>
     <sheet name="Headers" sheetId="3" r:id="rId4"/>
     <sheet name="TabSelections" sheetId="4" r:id="rId5"/>
-    <sheet name="Ecommerce" sheetId="6" r:id="rId6"/>
+    <sheet name="ECommerce" sheetId="6" r:id="rId6"/>
     <sheet name="MultiLang" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1161,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5351,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A254A974-0ADC-41B0-A5D7-DC0923041748}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C30681-5335-4948-B0EF-06E47E2E9BC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
@@ -1161,11 +1161,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C11"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5351,7 +5351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C30681-5335-4948-B0EF-06E47E2E9BC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F15AF96-F114-4971-B115-DC4CE1AF3A78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="Footers" sheetId="2" r:id="rId3"/>
     <sheet name="Headers" sheetId="3" r:id="rId4"/>
     <sheet name="TabSelections" sheetId="4" r:id="rId5"/>
-    <sheet name="ECommerce" sheetId="6" r:id="rId6"/>
+    <sheet name="Ecom" sheetId="6" r:id="rId6"/>
     <sheet name="MultiLang" sheetId="8" r:id="rId7"/>
+    <sheet name="Shop" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="269">
   <si>
     <t>TC_NO</t>
   </si>
@@ -169,16 +170,10 @@
     <t>016_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_InternetHOPUpgrade</t>
   </si>
   <si>
-    <t>Ftrfrank1+ecomauto@gmail.com</t>
-  </si>
-  <si>
     <t>TC13</t>
   </si>
   <si>
     <t>017_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video HOP Upgrade</t>
-  </si>
-  <si>
-    <t>ftrfrank1+ecommtest01@gmail.com</t>
   </si>
   <si>
     <t>Password123</t>
@@ -394,12 +389,6 @@
     </r>
   </si>
   <si>
-    <t>Ftrfrank1+videoaddtest03@gmail.com</t>
-  </si>
-  <si>
-    <t>ftrfrank1+vv@gmail.com</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage
 </t>
@@ -447,9 +436,6 @@
     <t>004_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_Res</t>
   </si>
   <si>
-    <t>005_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_SMB</t>
-  </si>
-  <si>
     <t>006_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonMobileAppPage</t>
   </si>
   <si>
@@ -522,9 +508,6 @@
     <t>TC23</t>
   </si>
   <si>
-    <t>024_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_AgentWindowPassthrough</t>
-  </si>
-  <si>
     <t>TC24</t>
   </si>
   <si>
@@ -540,9 +523,6 @@
     <t>TC26</t>
   </si>
   <si>
-    <t>027_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_NonSignIn_Agent WindowPassthrough</t>
-  </si>
-  <si>
     <t>TC27</t>
   </si>
   <si>
@@ -558,9 +538,6 @@
     <t>TC29</t>
   </si>
   <si>
-    <t>030_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_SignIn_AgentWindowPassthrough</t>
-  </si>
-  <si>
     <t>TC30</t>
   </si>
   <si>
@@ -582,9 +559,6 @@
     <t>TC33</t>
   </si>
   <si>
-    <t>035_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_AgentWindowPassthrough</t>
-  </si>
-  <si>
     <t>TC34</t>
   </si>
   <si>
@@ -606,21 +580,12 @@
     <t>TC37</t>
   </si>
   <si>
-    <t>043_CC_.COM_NSS_Res_Non-LoggedIn_Self-ServeWindow</t>
-  </si>
-  <si>
     <t>TC38</t>
   </si>
   <si>
-    <t>047_CC_.COM_NSS_Res_Non-LoggedIn_OverlayMenuFunctionality</t>
-  </si>
-  <si>
     <t>TC39</t>
   </si>
   <si>
-    <t>049_CC_.COM_NSS_Res_Non-LoggedIn_AutoMessages</t>
-  </si>
-  <si>
     <t>TC40</t>
   </si>
   <si>
@@ -633,9 +598,6 @@
     <t>03_CC_.COM_NSS_Res_Chat_SMC_CreationofNewSocialMediaChatLandingPage</t>
   </si>
   <si>
-    <t>TC42</t>
-  </si>
-  <si>
     <t>04_CC_.COM_NSS_Res_Chat_SMC_DisplayofNewSocialMediaChatLandingPage</t>
   </si>
   <si>
@@ -654,12 +616,6 @@
     <t>001_CC_.COM_NSS_Res_ML_ErrorMessaging</t>
   </si>
   <si>
-    <t>qat03</t>
-  </si>
-  <si>
-    <t>https://qat03.frontier.com/</t>
-  </si>
-  <si>
     <t>002_CC_.COM_NSS_Res_ML_LanguageSelectionRetention</t>
   </si>
   <si>
@@ -682,13 +638,256 @@
   </si>
   <si>
     <t>009_CC_.COM_NSS_Res_ML_SiteWideTranslationNavigation</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_Shop_Bundles_Multi-LanguageToggleDisplayonBundleProductPage</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_NSS_Res_Shop_Bundles_LanguageToggleFunctionalityonBundleProductPage</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_NSS_Res_Shop_Bundles_VerificationofBundleProductPageLiveChatLinks</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_NSS_Res_Shop_Bundles_BundleProductPage_ChatRedesign</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_NSS_Res_Shop_Bundles_DISHBundleLeaderProductPage_ChatRedesign</t>
+  </si>
+  <si>
+    <t>006_CC_.COM_NSS_Res_Shop_Bundles_DISHBundleChallengerProductPage_ChatRedesign</t>
+  </si>
+  <si>
+    <t>007_CC_.COM_NSS_Res_Shop_Bundles_DISHBundleCTFProductPage_ChatRedesign</t>
+  </si>
+  <si>
+    <t>008_CC_.COM_NSS_Res_Shop_Bundles_VantageTVBundleProductPage_ChatRedesign</t>
+  </si>
+  <si>
+    <t>009_CC_.COM_NSS_Res_Shop_Bundles_FIOSBundleProductPage_ChatRedesign</t>
+  </si>
+  <si>
+    <t>Bundles</t>
+  </si>
+  <si>
+    <t>Digital Essentials</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_Shop_DE_LanguageToggleDisplayonFrontierSecureConnectedHomeProduct</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_NSS_Res_Shop_DE_LanguageToggleDisplayonFrontierSecureContentAnywhereProduct</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_NSS_Res_Shop_DE_LanguageToggleDisplayonFrontierSecureEquipmentProtectionProduct</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_NSS_Res_Shop_DE_LanguageToggleDisplayonFrontierSecureIdentityProtectionProductPage</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_NSS_Res_Shop_DE_LanguageToggleDisplayonFrontierSecureMulti-Device SecurityProductPage</t>
+  </si>
+  <si>
+    <t>006_CC_.COM_NSS_Res_Shop_DE_LanguageToggleDisplayonFrontierSecureProductPage</t>
+  </si>
+  <si>
+    <t>007_CC_.COM_NSS_Res_Shop_DE_LanguageToggleDisplayonFrontierSecurePTSProduct</t>
+  </si>
+  <si>
+    <t>008_CC_.COM_NSS_Res_Shop_DE_LanguageToggleFunctionalityonFrontierSecureConnectedHomeProduct</t>
+  </si>
+  <si>
+    <t>009_CC_.COM_NSS_Res_Shop_DE_LanguageToggleFunctionalityonFrontierSecureContentAnywhereProduct</t>
+  </si>
+  <si>
+    <t>010_CC_.COM_NSS_Res_Shop_DE_LanguageToggleFunctionalityonFrontierSecureIdentityProtectionProductPage</t>
+  </si>
+  <si>
+    <t>011_CC_.COM_NSS_Res_Shop_DE_LanguageToggleFunctionalityonFrontierSecureMulti-DeviceSecurityProductPage</t>
+  </si>
+  <si>
+    <t>012_CC_.COM_NSS_Res_Shop_DE_LanguageToggleFunctionalityonFrontierSecureProductPage</t>
+  </si>
+  <si>
+    <t>013_CC_.COM_NSS_Res_Shop_DE_LanguageToggleFunctionalityonFrontierSecurePTSProduct</t>
+  </si>
+  <si>
+    <t>014_CC_.COM_NSS_Res_Shop_DE_LanguageToggleFunctionlaityonFrontierSecureEquipmentProtectionProduct</t>
+  </si>
+  <si>
+    <t>015_CC_.COM_NSS_Res_Shop_DE_VerificationofFrontierSecureProductPageLiveChatLinks</t>
+  </si>
+  <si>
+    <t>016_CC_.COM_NSS_Res_Shop_DE_ Challenger_CopperZips-FrontierSecure</t>
+  </si>
+  <si>
+    <t>017_CC_.COM_NSS_Res_Shop_DE_ Challenger_CopperZips-InternetLandingPageNational</t>
+  </si>
+  <si>
+    <t>018_CC_.COM_NSS_Res_Shop_DE_ Challenger_IllinoisZips-FrontierSecure</t>
+  </si>
+  <si>
+    <t>019_CC_.COM_NSS_Res_Shop_DE_ Challenger_FIOSZips-FrontierSecure</t>
+  </si>
+  <si>
+    <t>020_CC_.COM_NSS_Res_Shop_DE_ Challenger_UverseZip-FrontierSecure</t>
+  </si>
+  <si>
+    <t>021_CC_.COM_NSS_Res_Shop_DE_ Challenger_SatelliteZips FrontierSecure</t>
+  </si>
+  <si>
+    <t>022_CC_.COM_NSS_Res_Shop_DE_ Leader_CopperZips-FrontierSecure</t>
+  </si>
+  <si>
+    <t>023_CC_.COM_NSS_Res_Shop_DE_ Leader_CopperZips-InternetLandingPageNational</t>
+  </si>
+  <si>
+    <t>024_CC_.COM_NSS_Res_Shop_DE_ Leader_IllinoisZips-FrontierSecure</t>
+  </si>
+  <si>
+    <t>025_CC_.COM_NSS_Res_Shop_DE_ Leader_FIOSZips-FrontierSecure</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>Zipcode3</t>
+  </si>
+  <si>
+    <t>46835</t>
+  </si>
+  <si>
+    <t>61802</t>
+  </si>
+  <si>
+    <t>06515</t>
+  </si>
+  <si>
+    <t>75087</t>
+  </si>
+  <si>
+    <t>46801</t>
+  </si>
+  <si>
+    <t>06001</t>
+  </si>
+  <si>
+    <t>76804</t>
+  </si>
+  <si>
+    <t>14601</t>
+  </si>
+  <si>
+    <t>14626</t>
+  </si>
+  <si>
+    <t>07461</t>
+  </si>
+  <si>
+    <t>60002</t>
+  </si>
+  <si>
+    <t>28467</t>
+  </si>
+  <si>
+    <t>01001</t>
+  </si>
+  <si>
+    <t>60099</t>
+  </si>
+  <si>
+    <t>009_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_SiteWideTranslationNavigation</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Ftrfrank1+remedyticket@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrfrank1+apr29@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,12 +938,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -760,6 +953,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -794,7 +999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -830,12 +1035,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -873,11 +1089,25 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1161,11 +1391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1476,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
@@ -1294,16 +1524,16 @@
         <v>21</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -1455,7 +1685,7 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="12"/>
     </row>
@@ -1494,7 +1724,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>43</v>
@@ -1527,7 +1757,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>46</v>
@@ -1541,11 +1771,11 @@
       <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
+      <c r="F10" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1563,22 +1793,22 @@
         <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -3018,20 +3248,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D3AEEB3D-8507-403A-9375-56772D821B5B}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{19C4F152-B57D-4651-BB1C-77CC127CD636}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{276EF88A-7719-492D-B5A0-BAA692E86C70}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{63CBC045-AFE2-4007-8203-255FFFAF5720}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{1B23E28D-6874-4F16-95C4-44851F8E4996}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{3FE11430-27EC-4AF7-B65C-8D878EE00912}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{4184E381-06C1-4749-B2CC-F6A775706AB4}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{C92CDBD1-09CE-4C49-8D27-EDC4BD8BD354}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{228299E7-9BD4-448E-8533-4EFD2C884AE5}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{A50FB775-D735-45C2-B682-95874714A85A}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{86B38B29-8528-4434-8953-2DC43D641EB1}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{A1FA03CA-6C4A-4B2C-949D-E11B20255815}"/>
+    <hyperlink ref="F10" r:id="rId13" display="mailto:Ftrfrank1+remedyticket@gmail.com" xr:uid="{57E7E6FD-A7CB-4527-8DAD-28292FF911EE}"/>
+    <hyperlink ref="F11" r:id="rId14" display="mailto:Ftrfrank1+remedyticket@gmail.com" xr:uid="{99D7482C-2224-4642-94A5-9BA4A7C2ECEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
@@ -3040,1290 +3270,1306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="C24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="C27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="C30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="C32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="C33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="C35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="C37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="C38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="12" t="s">
+      <c r="C39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="B40" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="B41" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="B42" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" display="https://qat03.frontier.com/resources/cpni" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D10" r:id="rId5" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D11" r:id="rId6" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D12" r:id="rId7" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D13" r:id="rId8" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D14" r:id="rId9" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D15" r:id="rId10" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D16" r:id="rId11" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D17" r:id="rId12" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D18" r:id="rId13" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D20" r:id="rId15" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D21" r:id="rId16" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D22" r:id="rId17" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D23" r:id="rId18" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D24" r:id="rId19" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D25" r:id="rId20" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D26" r:id="rId21" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D27" r:id="rId22" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D28" r:id="rId23" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D29" r:id="rId24" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D30" r:id="rId25" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D31" r:id="rId26" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D32" r:id="rId27" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D33" r:id="rId28" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D34" r:id="rId29" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D35" r:id="rId30" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D36" r:id="rId31" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D37" r:id="rId32" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D38" r:id="rId33" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D39" r:id="rId34" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D40" r:id="rId35" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D43" r:id="rId36" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D44" r:id="rId37" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D42" r:id="rId38" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="E9" r:id="rId1" display="https://qat03.frontier.com/resources/cpni" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E12" r:id="rId7" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E13" r:id="rId8" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E14" r:id="rId9" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E15" r:id="rId10" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E16" r:id="rId11" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E17" r:id="rId12" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E18" r:id="rId13" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E19" r:id="rId14" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E20" r:id="rId15" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E21" r:id="rId16" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E22" r:id="rId17" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E23" r:id="rId18" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E24" r:id="rId19" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E25" r:id="rId20" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E26" r:id="rId21" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="E27" r:id="rId22" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E28" r:id="rId23" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E29" r:id="rId24" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E30" r:id="rId25" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E31" r:id="rId26" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="E32" r:id="rId27" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="E33" r:id="rId28" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E34" r:id="rId29" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="E35" r:id="rId30" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="E36" r:id="rId31" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="E37" r:id="rId32" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="E39" r:id="rId33" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E40" r:id="rId34" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="E38" r:id="rId35" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -4335,7 +4581,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4361,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4372,16 +4618,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -4395,13 +4641,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -4415,13 +4661,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -4435,13 +4681,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -4455,13 +4701,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -4475,13 +4721,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -4495,13 +4741,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -4512,16 +4758,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -4532,16 +4778,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -4555,13 +4801,13 @@
         <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -4575,13 +4821,13 @@
         <v>42</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -4595,13 +4841,13 @@
         <v>45</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -4612,16 +4858,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -4632,16 +4878,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -4652,16 +4898,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -4672,16 +4918,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -4709,7 +4955,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4741,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -4756,30 +5002,30 @@
         <v>6</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -4790,16 +5036,16 @@
       <c r="G2" s="9"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4807,13 +5053,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -4833,13 +5079,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -4848,7 +5094,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>23</v>
@@ -4863,13 +5109,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -4889,13 +5135,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -4915,13 +5161,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -4941,13 +5187,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -4964,16 +5210,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -4990,16 +5236,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -5022,325 +5268,377 @@
     <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="31" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="13"/>
+    <col min="3" max="3" width="8.28515625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="6.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>20</v>
+        <v>94</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>20</v>
+      <c r="C10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>20</v>
+        <v>99</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C16" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>20</v>
+      <c r="C17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="D17" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -5351,8 +5649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5403,7 +5701,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -5421,10 +5719,10 @@
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>19</v>
@@ -5435,8 +5733,8 @@
       <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>115</v>
+      <c r="F3" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>
@@ -5455,7 +5753,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
@@ -5467,7 +5765,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>23</v>
@@ -5486,7 +5784,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
@@ -5498,7 +5796,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>23</v>
@@ -5517,7 +5815,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
@@ -5529,7 +5827,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>23</v>
@@ -5548,7 +5846,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
@@ -5560,7 +5858,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>23</v>
@@ -5831,14 +6129,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{5DB26C1F-5647-4580-A5FB-779B19C7FE42}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{A93F0EB5-CBD4-4DCB-B61A-3010C3F5E899}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{6BDC9CDE-F0A5-4B25-9B7E-0E9102E1A39C}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{D64EA58B-E337-49C0-AF1C-5C33D702CC23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5849,7 +6143,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5875,7 +6169,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -5892,19 +6186,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>21</v>
@@ -5917,16 +6211,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -5939,16 +6233,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -5961,16 +6255,16 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
@@ -5983,16 +6277,16 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -6005,16 +6299,16 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -6027,16 +6321,16 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
@@ -6046,19 +6340,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>
@@ -6068,19 +6362,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>21</v>
@@ -6090,10 +6384,1122 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{9ECFBDA7-F582-45EA-B669-B4EE0C7E70C1}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9ECFBDA7-F582-45EA-B669-B4EE0C7E70C1}"/>
     <hyperlink ref="E3:E9" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{CF2CF369-AB42-4802-AE0D-719993256B25}"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{B50507F2-E54F-4758-A732-1A23FAEC214C}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{B50507F2-E54F-4758-A732-1A23FAEC214C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26161D60-12B0-4ECB-A47F-6455138E07B4}">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="105.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="13"/>
+    <col min="11" max="12" width="9" style="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="12">
+        <v>14621</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="12">
+        <v>14621</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{2CC4EE08-244A-4CA0-A534-EA2409A4396A}"/>
+    <hyperlink ref="F4:F10" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{210C1535-95E1-498F-80F7-03D5FC8DE4B0}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{9D75D396-612F-4C27-849F-53683BCA2BA8}"/>
+    <hyperlink ref="F14:F20" r:id="rId4" display="https://qat01.frontier.com/" xr:uid="{D850CDB3-056E-46A7-B219-E6F71ECEB5F2}"/>
+    <hyperlink ref="F21" r:id="rId5" xr:uid="{62325809-552C-44FC-A145-903C3B45EA88}"/>
+    <hyperlink ref="F22" r:id="rId6" xr:uid="{A651EC5E-235A-4321-B93F-94C3B7702C1D}"/>
+    <hyperlink ref="F23:F29" r:id="rId7" display="https://qat01.frontier.com/" xr:uid="{4A16AC6E-4F31-4365-B88F-40DAF24D06EC}"/>
+    <hyperlink ref="F30" r:id="rId8" xr:uid="{5C646ED0-71F2-4709-B078-2C0632EF41DB}"/>
+    <hyperlink ref="F31" r:id="rId9" xr:uid="{AC9177F5-A579-4FC9-8316-EC8D9D72DA60}"/>
+    <hyperlink ref="F32" r:id="rId10" xr:uid="{22D83D1A-5813-449D-975B-1A3F284F9A42}"/>
+    <hyperlink ref="F33" r:id="rId11" xr:uid="{91CF140A-3D12-4D3C-A8EF-4B748B29EA0C}"/>
+    <hyperlink ref="F34" r:id="rId12" xr:uid="{A8E93481-CA7D-4E9F-8615-E5FB3B89A1C7}"/>
+    <hyperlink ref="F35" r:id="rId13" xr:uid="{516F5D02-FB4B-47D6-8A6E-1C27C8FDE4C8}"/>
+    <hyperlink ref="F36" r:id="rId14" xr:uid="{7B49AD9B-DC8E-4FDB-AA66-2B32FD9AAE93}"/>
+    <hyperlink ref="F37" r:id="rId15" xr:uid="{90F2B7C3-C5FF-4C94-8881-5479E3007736}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
 </file>
--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F15AF96-F114-4971-B115-DC4CE1AF3A78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487D3F13-B49A-45FC-87FA-FE86C731BC82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="269">
   <si>
     <t>TC_NO</t>
   </si>
@@ -1051,7 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -1106,7 +1106,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1395,7 +1394,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1633,7 @@
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="17" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -3272,8 +3271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,9 +4415,11 @@
         <v>54</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -4444,9 +4445,11 @@
         <v>54</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -4493,9 +4496,15 @@
       <c r="B41" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -4515,9 +4524,15 @@
       <c r="B42" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -4564,12 +4579,14 @@
     <hyperlink ref="E35" r:id="rId30" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
     <hyperlink ref="E36" r:id="rId31" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
     <hyperlink ref="E37" r:id="rId32" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="E39" r:id="rId33" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="E40" r:id="rId34" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="E38" r:id="rId35" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="E41" r:id="rId33" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E42" r:id="rId34" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="E40" r:id="rId35" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="E38" r:id="rId36" display="https://qat03.frontier.com/" xr:uid="{2DEC0D8B-88F3-428F-B29F-8FACEE824929}"/>
+    <hyperlink ref="E39" r:id="rId37" display="https://qat03.frontier.com/" xr:uid="{42D4FF6B-47DA-408A-A36D-F9B376BD8C14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -5649,7 +5666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -6761,7 +6778,7 @@
       <c r="A13" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C13" s="41" t="s">
@@ -6781,7 +6798,7 @@
       <c r="A14" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C14" t="s">
@@ -6811,7 +6828,7 @@
       <c r="A15" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C15" s="41" t="s">
@@ -6831,7 +6848,7 @@
       <c r="A16" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C16" t="s">
@@ -6861,7 +6878,7 @@
       <c r="A17" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C17" t="s">
@@ -6891,7 +6908,7 @@
       <c r="A18" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C18" t="s">
@@ -6921,7 +6938,7 @@
       <c r="A19" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C19" t="s">
@@ -6951,7 +6968,7 @@
       <c r="A20" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C20" s="41" t="s">
@@ -6971,7 +6988,7 @@
       <c r="A21" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C21" t="s">
@@ -7001,7 +7018,7 @@
       <c r="A22" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C22" t="s">
@@ -7031,7 +7048,7 @@
       <c r="A23" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C23" t="s">
@@ -7061,7 +7078,7 @@
       <c r="A24" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C24" t="s">
@@ -7091,7 +7108,7 @@
       <c r="A25" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C25" t="s">
@@ -7121,7 +7138,7 @@
       <c r="A26" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C26" s="41" t="s">
@@ -7141,7 +7158,7 @@
       <c r="A27" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C27" t="s">
@@ -7171,7 +7188,7 @@
       <c r="A28" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C28" t="s">
@@ -7201,7 +7218,7 @@
       <c r="A29" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C29" t="s">
@@ -7231,7 +7248,7 @@
       <c r="A30" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C30" t="s">
@@ -7261,7 +7278,7 @@
       <c r="A31" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C31" t="s">
@@ -7291,7 +7308,7 @@
       <c r="A32" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C32" t="s">
@@ -7321,7 +7338,7 @@
       <c r="A33" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C33" t="s">
@@ -7351,7 +7368,7 @@
       <c r="A34" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C34" t="s">
@@ -7381,7 +7398,7 @@
       <c r="A35" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C35" t="s">
@@ -7411,7 +7428,7 @@
       <c r="A36" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C36" t="s">
@@ -7441,7 +7458,7 @@
       <c r="A37" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="42" t="s">
         <v>266</v>
       </c>
       <c r="C37" t="s">

--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487D3F13-B49A-45FC-87FA-FE86C731BC82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DA46C6-6A0A-4832-8942-8311A456F47E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="297">
   <si>
     <t>TC_NO</t>
   </si>
@@ -881,6 +881,90 @@
   </si>
   <si>
     <t>ftrfrank1+apr29@gmail.com</t>
+  </si>
+  <si>
+    <t>https://qat02.frontier.com/</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Internet-Challendger</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_Shop_NET_Challenger_GeneralZips-InternetProductPage</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_NSS_Res_Shop_NET_Challenger_CopperZips-InternetLandingPage</t>
+  </si>
+  <si>
+    <t>009_CC_.COM_NSS_Res_Shop_NET_Challenger_IllinoisZips-InternetLandingPageBB Max</t>
+  </si>
+  <si>
+    <t>60481</t>
+  </si>
+  <si>
+    <t>014_CC_.COM_NSS_Res_Shop_NET_Challenger_FIOSZips-InternetLandingPage</t>
+  </si>
+  <si>
+    <t>020_CC_.COM_NSS_Res_Shop_NET_Challenger_Uverse Zip-InternetLandingPage</t>
+  </si>
+  <si>
+    <t>029_CC_.COM_NSS_Res_Shop_NET_Challenger_SatelliteZips-InternetLandingPage</t>
+  </si>
+  <si>
+    <t>Internet-Leader</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_Shop_NET_Leader_GeneralZips-InternetProductPage</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_NSS_Res_Shop_NET_Leader_CopperZips-InternetLandingPage</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>009_CC_.COM_NSS_Res_Shop_NET_Leader_IllinoisZips-InternetLandingPageBBMax</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>014_CC_.COM_NSS_Res_Shop_NET_Leader_FIOSZips-InternetLandingPage</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>Internet-Multi_Language</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_Shop_NET_Multi-Language_ToggleDisplayonInternetProductPage</t>
+  </si>
+  <si>
+    <t>46804</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>TC47</t>
+  </si>
+  <si>
+    <t>Internet-Neutrality</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_Shop_NET_NN_FCCLink</t>
+  </si>
+  <si>
+    <t>TC48</t>
+  </si>
+  <si>
+    <t>TC49</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -1107,6 +1191,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1394,7 +1482,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:F39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6159,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31F33E6-6169-4E2D-8B72-64D2A4550D11}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6411,10 +6499,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26161D60-12B0-4ECB-A47F-6455138E07B4}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6423,16 +6511,15 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="105.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="13"/>
-    <col min="11" max="12" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="11" width="9" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6446,31 +6533,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
@@ -6484,9 +6568,8 @@
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>52</v>
       </c>
@@ -6499,24 +6582,21 @@
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="12">
+      <c r="E3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="12">
         <v>14621</v>
       </c>
+      <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -6529,24 +6609,21 @@
       <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="12">
+      <c r="I4" s="12">
         <v>14621</v>
       </c>
+      <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
@@ -6559,28 +6636,25 @@
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="J5" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="L5" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -6593,22 +6667,19 @@
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E6" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -6621,24 +6692,21 @@
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>253</v>
       </c>
+      <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -6651,24 +6719,21 @@
       <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>257</v>
       </c>
+      <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -6681,24 +6746,21 @@
       <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>256</v>
       </c>
+      <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>61</v>
       </c>
@@ -6711,24 +6773,21 @@
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>255</v>
       </c>
+      <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>63</v>
       </c>
@@ -6741,24 +6800,21 @@
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>254</v>
       </c>
+      <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31" t="s">
@@ -6772,9 +6828,8 @@
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>224</v>
       </c>
@@ -6785,16 +6840,15 @@
         <v>199</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>227</v>
       </c>
@@ -6807,24 +6861,21 @@
       <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>228</v>
       </c>
@@ -6835,16 +6886,15 @@
         <v>201</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>229</v>
       </c>
@@ -6857,24 +6907,21 @@
       <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>230</v>
       </c>
@@ -6887,24 +6934,21 @@
       <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>231</v>
       </c>
@@ -6917,24 +6961,21 @@
       <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>232</v>
       </c>
@@ -6947,24 +6988,21 @@
       <c r="D19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>233</v>
       </c>
@@ -6975,16 +7013,15 @@
         <v>206</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>234</v>
       </c>
@@ -6997,24 +7034,21 @@
       <c r="D21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E21" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="12" t="s">
+      <c r="I21" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>235</v>
       </c>
@@ -7027,24 +7061,21 @@
       <c r="D22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>225</v>
       </c>
@@ -7057,24 +7088,21 @@
       <c r="D23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E23" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="12" t="s">
+      <c r="I23" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>236</v>
       </c>
@@ -7087,24 +7115,21 @@
       <c r="D24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E24" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="12" t="s">
+      <c r="I24" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>237</v>
       </c>
@@ -7117,24 +7142,21 @@
       <c r="D25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="12" t="s">
+      <c r="I25" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>238</v>
       </c>
@@ -7145,16 +7167,15 @@
         <v>212</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>239</v>
       </c>
@@ -7167,24 +7188,21 @@
       <c r="D27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E27" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="16"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>258</v>
       </c>
+      <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>240</v>
       </c>
@@ -7197,24 +7215,21 @@
       <c r="D28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E28" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="12" t="s">
+      <c r="I28" s="12" t="s">
         <v>259</v>
       </c>
+      <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>241</v>
       </c>
@@ -7227,24 +7242,21 @@
       <c r="D29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E29" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="16"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="12" t="s">
+      <c r="I29" s="12" t="s">
         <v>259</v>
       </c>
+      <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>242</v>
       </c>
@@ -7257,24 +7269,21 @@
       <c r="D30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E30" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="16"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="12" t="s">
+      <c r="I30" s="12" t="s">
         <v>260</v>
       </c>
+      <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>243</v>
       </c>
@@ -7287,24 +7296,21 @@
       <c r="D31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="16"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="12" t="s">
+      <c r="I31" s="12" t="s">
         <v>261</v>
       </c>
+      <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>244</v>
       </c>
@@ -7317,24 +7323,21 @@
       <c r="D32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="16"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="12" t="s">
+      <c r="I32" s="12" t="s">
         <v>262</v>
       </c>
+      <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>226</v>
       </c>
@@ -7347,24 +7350,21 @@
       <c r="D33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E33" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="16"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="12" t="s">
+      <c r="I33" s="12" t="s">
         <v>263</v>
       </c>
+      <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>245</v>
       </c>
@@ -7377,24 +7377,21 @@
       <c r="D34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E34" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="12" t="s">
+      <c r="I34" s="12" t="s">
         <v>259</v>
       </c>
+      <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>246</v>
       </c>
@@ -7407,24 +7404,21 @@
       <c r="D35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E35" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="12" t="s">
+      <c r="I35" s="12" t="s">
         <v>259</v>
       </c>
+      <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>247</v>
       </c>
@@ -7437,24 +7431,21 @@
       <c r="D36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E36" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="16"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>260</v>
       </c>
+      <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>248</v>
       </c>
@@ -7467,27 +7458,26 @@
       <c r="D37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="16"/>
       <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="12" t="s">
+      <c r="I37" s="12" t="s">
         <v>261</v>
       </c>
+      <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="C38" s="31" t="s">
+        <v>270</v>
+      </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
@@ -7496,27 +7486,402 @@
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
       <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J49" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="K49" s="44"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="32" t="s">
+        <v>296</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{2CC4EE08-244A-4CA0-A534-EA2409A4396A}"/>
-    <hyperlink ref="F4:F10" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{210C1535-95E1-498F-80F7-03D5FC8DE4B0}"/>
-    <hyperlink ref="F11" r:id="rId3" xr:uid="{9D75D396-612F-4C27-849F-53683BCA2BA8}"/>
-    <hyperlink ref="F14:F20" r:id="rId4" display="https://qat01.frontier.com/" xr:uid="{D850CDB3-056E-46A7-B219-E6F71ECEB5F2}"/>
-    <hyperlink ref="F21" r:id="rId5" xr:uid="{62325809-552C-44FC-A145-903C3B45EA88}"/>
-    <hyperlink ref="F22" r:id="rId6" xr:uid="{A651EC5E-235A-4321-B93F-94C3B7702C1D}"/>
-    <hyperlink ref="F23:F29" r:id="rId7" display="https://qat01.frontier.com/" xr:uid="{4A16AC6E-4F31-4365-B88F-40DAF24D06EC}"/>
-    <hyperlink ref="F30" r:id="rId8" xr:uid="{5C646ED0-71F2-4709-B078-2C0632EF41DB}"/>
-    <hyperlink ref="F31" r:id="rId9" xr:uid="{AC9177F5-A579-4FC9-8316-EC8D9D72DA60}"/>
-    <hyperlink ref="F32" r:id="rId10" xr:uid="{22D83D1A-5813-449D-975B-1A3F284F9A42}"/>
-    <hyperlink ref="F33" r:id="rId11" xr:uid="{91CF140A-3D12-4D3C-A8EF-4B748B29EA0C}"/>
-    <hyperlink ref="F34" r:id="rId12" xr:uid="{A8E93481-CA7D-4E9F-8615-E5FB3B89A1C7}"/>
-    <hyperlink ref="F35" r:id="rId13" xr:uid="{516F5D02-FB4B-47D6-8A6E-1C27C8FDE4C8}"/>
-    <hyperlink ref="F36" r:id="rId14" xr:uid="{7B49AD9B-DC8E-4FDB-AA66-2B32FD9AAE93}"/>
-    <hyperlink ref="F37" r:id="rId15" xr:uid="{90F2B7C3-C5FF-4C94-8881-5479E3007736}"/>
+    <hyperlink ref="E3" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{479D62C2-ABAC-49DF-9498-D04CF26FC170}"/>
+    <hyperlink ref="E4:E10" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{D3D1290E-F30C-40E8-B7EA-3EBAB32306C7}"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{9A46A12C-91CF-4015-8C52-2B1C33F3F8FE}"/>
+    <hyperlink ref="E14:E20" r:id="rId4" display="https://qat01.frontier.com/" xr:uid="{8479A8F9-04A7-4C10-8B5B-8CFF19AEACB8}"/>
+    <hyperlink ref="E21" r:id="rId5" display="https://qat01.frontier.com/" xr:uid="{EC22EFF9-D540-4309-9EA9-39329B4E52FF}"/>
+    <hyperlink ref="E22" r:id="rId6" display="https://qat01.frontier.com/" xr:uid="{D03AC793-5637-44A0-8F0C-7C5613294980}"/>
+    <hyperlink ref="E23:E29" r:id="rId7" display="https://qat01.frontier.com/" xr:uid="{0E9D07F8-0339-46A8-995F-C18741555C4D}"/>
+    <hyperlink ref="E30" r:id="rId8" display="https://qat01.frontier.com/" xr:uid="{F12A855D-DD36-4D51-84F2-9E4AF7D2812B}"/>
+    <hyperlink ref="E31" r:id="rId9" display="https://qat01.frontier.com/" xr:uid="{0AB9B774-7953-437D-B5A3-37CD3177403C}"/>
+    <hyperlink ref="E32" r:id="rId10" display="https://qat01.frontier.com/" xr:uid="{65ED462F-1470-4391-BA80-0FC45BFFF970}"/>
+    <hyperlink ref="E33" r:id="rId11" display="https://qat01.frontier.com/" xr:uid="{63E4D541-0107-4929-BF87-C89F644F82AD}"/>
+    <hyperlink ref="E34" r:id="rId12" display="https://qat01.frontier.com/" xr:uid="{762ED126-7A59-42F7-95E9-A71B66315119}"/>
+    <hyperlink ref="E35" r:id="rId13" display="https://qat01.frontier.com/" xr:uid="{3DA19BBA-EE64-46E5-B66C-4EDEFC19B616}"/>
+    <hyperlink ref="E36" r:id="rId14" display="https://qat01.frontier.com/" xr:uid="{EF34205F-33D1-40FC-A487-029E17546B2F}"/>
+    <hyperlink ref="E37" r:id="rId15" display="https://qat01.frontier.com/" xr:uid="{3EB21977-E9B3-4927-8085-774D0366FE5B}"/>
+    <hyperlink ref="E39" r:id="rId16" xr:uid="{A5599313-7C7C-4561-BADE-A97E01CDFA84}"/>
+    <hyperlink ref="E40" r:id="rId17" display="https://qat01.frontier.com/" xr:uid="{597BA0B3-39B5-43D5-A4DF-BA2ABE6F9DF2}"/>
+    <hyperlink ref="E41" r:id="rId18" display="https://qat01.frontier.com/" xr:uid="{B283410C-F4F6-4994-84B6-07242FF21D99}"/>
+    <hyperlink ref="E42" r:id="rId19" display="https://qat01.frontier.com/" xr:uid="{CABC1A77-AC4C-4A60-A5E3-26E5AC928852}"/>
+    <hyperlink ref="E43" r:id="rId20" display="https://qat01.frontier.com/" xr:uid="{180BA600-24DC-4F01-AE41-7048325407FA}"/>
+    <hyperlink ref="E44" r:id="rId21" display="https://qat01.frontier.com/" xr:uid="{3A94E5F4-9685-4C86-86A5-54068B1FC53A}"/>
+    <hyperlink ref="E45" r:id="rId22" xr:uid="{C2846729-708B-4AF1-B016-CF8DF74BC459}"/>
+    <hyperlink ref="E46" r:id="rId23" display="https://qat01.frontier.com/" xr:uid="{F1F7F61E-C92D-4F3C-9A42-5A75C3C35AB8}"/>
+    <hyperlink ref="E47" r:id="rId24" display="https://qat01.frontier.com/" xr:uid="{2294B840-EF06-457A-B1F7-154BC44A9A86}"/>
+    <hyperlink ref="E48" r:id="rId25" display="https://qat01.frontier.com/" xr:uid="{0A7C123E-4E14-47D8-B09D-729ED7AF84B9}"/>
+    <hyperlink ref="E49" r:id="rId26" display="https://qat01.frontier.com/" xr:uid="{FB995167-94D8-4C29-B58C-06D3FF22A1EF}"/>
+    <hyperlink ref="E52" r:id="rId27" display="https://qat01.frontier.com/" xr:uid="{36EBD02C-0CB2-440B-864A-DA26D7C4E6D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Resources/TestData/qat01.xlsx
+++ b/Resources/TestData/qat01.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DA46C6-6A0A-4832-8942-8311A456F47E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12795" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="298">
   <si>
     <t>TC_NO</t>
   </si>
@@ -95,9 +89,6 @@
     <t>k33p1ngITr3al</t>
   </si>
   <si>
-    <t>ftrfrank1+automation@gmail.com</t>
-  </si>
-  <si>
     <t>Frontier999</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>003_CC_REG_RES_FCOM_Man_MyStatements-CurrentBillingStatement</t>
   </si>
   <si>
-    <t>Ftrfrank1+automationtest01@gmail.com</t>
-  </si>
-  <si>
     <t>TC04</t>
   </si>
   <si>
@@ -137,12 +125,6 @@
     <t>006_CC_REG_RES_FCOM_Man_MyProfile-LinkAccount</t>
   </si>
   <si>
-    <t xml:space="preserve">7278494301 </t>
-  </si>
-  <si>
-    <t>7557</t>
-  </si>
-  <si>
     <t>TC07</t>
   </si>
   <si>
@@ -278,9 +260,6 @@
     <t>003_CC_.COM_ENGLISH_NSS_Res_Headers_SignInWindow</t>
   </si>
   <si>
-    <t>ftrfrank1+automation2@gmail.com</t>
-  </si>
-  <si>
     <t>004_CC_.COM_ENGLISH_NSS_Res_Headers_BusinessTab</t>
   </si>
   <si>
@@ -345,9 +324,6 @@
   </si>
   <si>
     <t>016_CC_.COM_ENGLISH_NSS_Res_TS_Support_ContactUs</t>
-  </si>
-  <si>
-    <t>7278494301</t>
   </si>
   <si>
     <t>Zipcode1</t>
@@ -604,15 +580,6 @@
     <t>https://agentqat01.ftr.com/agent/social_media_chatlink_generator#/</t>
   </si>
   <si>
-    <t>ftrqat01+1@gmail.com</t>
-  </si>
-  <si>
-    <t>989-584-3113-030812-5</t>
-  </si>
-  <si>
-    <t>$133.53</t>
-  </si>
-  <si>
     <t>001_CC_.COM_NSS_Res_ML_ErrorMessaging</t>
   </si>
   <si>
@@ -877,15 +844,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>Ftrfrank1+remedyticket@gmail.com</t>
-  </si>
-  <si>
-    <t>ftrfrank1+apr29@gmail.com</t>
-  </si>
-  <si>
-    <t>https://qat02.frontier.com/</t>
-  </si>
-  <si>
     <t>Internet</t>
   </si>
   <si>
@@ -965,13 +923,52 @@
   </si>
   <si>
     <t>TC49</t>
+  </si>
+  <si>
+    <t>ftrqatest03+4@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrqatest03+6@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrqatest03@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrqatest03+3@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrqatest03+2@gmail.com</t>
+  </si>
+  <si>
+    <t>219-983-1807-051117-5</t>
+  </si>
+  <si>
+    <t>$110.13</t>
+  </si>
+  <si>
+    <t>972-202-7309-120208-5 MONTSERRAT A.</t>
+  </si>
+  <si>
+    <t>ftrqatest03+7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>9725172822</t>
+  </si>
+  <si>
+    <t>5038</t>
+  </si>
+  <si>
+    <t>ftrqatest03+8@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,12 +1011,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1131,11 +1122,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -1159,9 +1151,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,31 +1162,36 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1205,9 +1199,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1468,21 +1459,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1494,7 @@
     <col min="14" max="14" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="13" customWidth="1"/>
     <col min="18" max="20" width="9.140625" style="13" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="13"/>
   </cols>
@@ -1563,7 +1554,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
@@ -1577,11 +1568,11 @@
       <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>23</v>
+      <c r="F2" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1599,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>19</v>
@@ -1610,17 +1601,17 @@
       <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>49</v>
+      <c r="F3" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -1633,10 +1624,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
@@ -1647,25 +1638,25 @@
       <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>23</v>
+      <c r="F4" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="M4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -1674,10 +1665,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
@@ -1688,11 +1679,11 @@
       <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>23</v>
+      <c r="F5" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -1707,10 +1698,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
@@ -1722,10 +1713,10 @@
         <v>21</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>23</v>
+        <v>297</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1734,19 +1725,19 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12" t="s">
-        <v>36</v>
+        <v>295</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
@@ -1757,11 +1748,11 @@
       <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>23</v>
+      <c r="F7" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1772,16 +1763,16 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="15" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
@@ -1792,11 +1783,11 @@
       <c r="E8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
+      <c r="F8" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1811,25 +1802,25 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>23</v>
+      <c r="F9" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1844,10 +1835,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -1858,13 +1849,15 @@
       <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="F10" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>292</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -1877,10 +1870,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
@@ -1891,11 +1884,11 @@
       <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>49</v>
+      <c r="F11" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -3335,20 +3328,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D3AEEB3D-8507-403A-9375-56772D821B5B}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{19C4F152-B57D-4651-BB1C-77CC127CD636}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{276EF88A-7719-492D-B5A0-BAA692E86C70}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{63CBC045-AFE2-4007-8203-255FFFAF5720}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{1B23E28D-6874-4F16-95C4-44851F8E4996}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{3FE11430-27EC-4AF7-B65C-8D878EE00912}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{4184E381-06C1-4749-B2CC-F6A775706AB4}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{C92CDBD1-09CE-4C49-8D27-EDC4BD8BD354}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{228299E7-9BD4-448E-8533-4EFD2C884AE5}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{A50FB775-D735-45C2-B682-95874714A85A}"/>
-    <hyperlink ref="D10" r:id="rId11" xr:uid="{86B38B29-8528-4434-8953-2DC43D641EB1}"/>
-    <hyperlink ref="D11" r:id="rId12" xr:uid="{A1FA03CA-6C4A-4B2C-949D-E11B20255815}"/>
-    <hyperlink ref="F10" r:id="rId13" display="mailto:Ftrfrank1+remedyticket@gmail.com" xr:uid="{57E7E6FD-A7CB-4527-8DAD-28292FF911EE}"/>
-    <hyperlink ref="F11" r:id="rId14" display="mailto:Ftrfrank1+remedyticket@gmail.com" xr:uid="{99D7482C-2224-4642-94A5-9BA4A7C2ECEB}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId3"/>
+    <hyperlink ref="D11" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="F11" r:id="rId6"/>
+    <hyperlink ref="F6" r:id="rId7"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId9"/>
+    <hyperlink ref="F5" r:id="rId10"/>
+    <hyperlink ref="F10" r:id="rId11"/>
+    <hyperlink ref="F8" r:id="rId12"/>
+    <hyperlink ref="F9" r:id="rId13"/>
+    <hyperlink ref="F3" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
@@ -3356,7 +3349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3368,7 +3361,7 @@
     <col min="1" max="1" width="7" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86.85546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" style="10" bestFit="1" customWidth="1"/>
@@ -3395,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -3420,16 +3413,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -3438,10 +3431,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -3457,13 +3450,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -3484,16 +3477,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -3514,16 +3507,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -3544,14 +3537,14 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="35"/>
+        <v>30</v>
+      </c>
+      <c r="B6" s="34"/>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -3572,16 +3565,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -3602,16 +3595,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -3632,19 +3625,19 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>
@@ -3660,48 +3653,48 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
+        <v>59</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>123</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -3722,16 +3715,16 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
@@ -3752,16 +3745,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -3782,16 +3775,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -3812,16 +3805,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -3842,16 +3835,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -3872,16 +3865,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -3902,16 +3895,16 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -3932,16 +3925,16 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
@@ -3962,16 +3955,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>
@@ -3992,16 +3985,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
@@ -4022,16 +4015,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
@@ -4052,16 +4045,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>20</v>
@@ -4082,16 +4075,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>20</v>
@@ -4112,14 +4105,14 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="35"/>
+        <v>138</v>
+      </c>
+      <c r="B25" s="34"/>
       <c r="C25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>20</v>
@@ -4140,16 +4133,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>20</v>
@@ -4170,16 +4163,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
@@ -4200,14 +4193,14 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="35"/>
+        <v>143</v>
+      </c>
+      <c r="B28" s="34"/>
       <c r="C28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
@@ -4228,16 +4221,16 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>20</v>
@@ -4258,16 +4251,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>20</v>
@@ -4288,14 +4281,14 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="35"/>
+        <v>148</v>
+      </c>
+      <c r="B31" s="34"/>
       <c r="C31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>20</v>
@@ -4316,16 +4309,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>20</v>
@@ -4346,16 +4339,16 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>20</v>
@@ -4376,13 +4369,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>20</v>
@@ -4403,16 +4396,16 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>20</v>
@@ -4433,14 +4426,14 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="B36" s="34"/>
       <c r="C36" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>20</v>
@@ -4461,16 +4454,16 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>20</v>
@@ -4491,16 +4484,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>20</v>
@@ -4521,16 +4514,16 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>20</v>
@@ -4551,19 +4544,19 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -4579,19 +4572,19 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -4607,19 +4600,19 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -4635,43 +4628,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" display="https://qat03.frontier.com/resources/cpni" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E10" r:id="rId5" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E11" r:id="rId6" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E12" r:id="rId7" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E13" r:id="rId8" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E14" r:id="rId9" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="E15" r:id="rId10" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="E16" r:id="rId11" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="E17" r:id="rId12" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="E18" r:id="rId13" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="E19" r:id="rId14" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="E20" r:id="rId15" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E21" r:id="rId16" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E22" r:id="rId17" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E23" r:id="rId18" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="E24" r:id="rId19" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="E25" r:id="rId20" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E26" r:id="rId21" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="E27" r:id="rId22" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="E28" r:id="rId23" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E29" r:id="rId24" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="E30" r:id="rId25" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="E31" r:id="rId26" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="E32" r:id="rId27" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="E33" r:id="rId28" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="E34" r:id="rId29" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="E35" r:id="rId30" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="E36" r:id="rId31" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="E37" r:id="rId32" display="https://qat03.frontier.com/" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="E41" r:id="rId33" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="E42" r:id="rId34" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="E40" r:id="rId35" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="E38" r:id="rId36" display="https://qat03.frontier.com/" xr:uid="{2DEC0D8B-88F3-428F-B29F-8FACEE824929}"/>
-    <hyperlink ref="E39" r:id="rId37" display="https://qat03.frontier.com/" xr:uid="{42D4FF6B-47DA-408A-A36D-F9B376BD8C14}"/>
+    <hyperlink ref="E9" r:id="rId1" display="https://qat03.frontier.com/resources/cpni"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E10" r:id="rId5" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E12" r:id="rId7" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E13" r:id="rId8" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E14" r:id="rId9" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E15" r:id="rId10" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E16" r:id="rId11" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E17" r:id="rId12" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E18" r:id="rId13" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E19" r:id="rId14" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E20" r:id="rId15" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E21" r:id="rId16" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E22" r:id="rId17" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E23" r:id="rId18" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E24" r:id="rId19" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E25" r:id="rId20" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E26" r:id="rId21" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E27" r:id="rId22" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E28" r:id="rId23" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E29" r:id="rId24" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E30" r:id="rId25" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E31" r:id="rId26" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E32" r:id="rId27" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E33" r:id="rId28" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E34" r:id="rId29" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E35" r:id="rId30" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E36" r:id="rId31" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E37" r:id="rId32" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E41" r:id="rId33" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/"/>
+    <hyperlink ref="E42" r:id="rId34" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/"/>
+    <hyperlink ref="E40" r:id="rId35" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/"/>
+    <hyperlink ref="E38" r:id="rId36" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="E39" r:id="rId37" display="https://qat03.frontier.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId38"/>
@@ -4679,7 +4672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4712,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4723,16 +4716,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -4746,13 +4739,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -4763,16 +4756,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -4783,16 +4776,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -4803,16 +4796,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -4823,16 +4816,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -4843,16 +4836,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -4863,16 +4856,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -4883,16 +4876,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -4903,16 +4896,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -4923,16 +4916,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -4943,16 +4936,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -4963,16 +4956,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -4983,16 +4976,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -5003,16 +4996,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -5023,16 +5016,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -5043,9 +5036,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="E17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5053,14 +5046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5092,7 +5085,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -5107,30 +5100,30 @@
         <v>6</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -5141,16 +5134,16 @@
       <c r="G2" s="9"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5158,13 +5151,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -5181,16 +5174,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -5198,11 +5191,11 @@
       <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
+      <c r="G4" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -5211,16 +5204,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -5228,8 +5221,12 @@
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>294</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -5237,16 +5234,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -5254,8 +5251,12 @@
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>294</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -5263,16 +5264,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -5280,8 +5281,12 @@
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>294</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -5289,16 +5294,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -5306,8 +5311,12 @@
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>294</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -5315,16 +5324,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -5341,16 +5350,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -5367,10 +5376,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -5378,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,10 +5401,10 @@
   <cols>
     <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="29" customWidth="1"/>
     <col min="7" max="16384" width="6.7109375" style="13"/>
   </cols>
   <sheetData>
@@ -5406,36 +5415,36 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5444,306 +5453,306 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="E17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -5751,11 +5760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5792,7 +5801,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="12"/>
@@ -5805,8 +5814,8 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="23" t="s">
-        <v>111</v>
+      <c r="B2" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -5824,10 +5833,10 @@
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>112</v>
+        <v>48</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>19</v>
@@ -5839,10 +5848,10 @@
         <v>21</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>285</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -5857,8 +5866,8 @@
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>109</v>
+      <c r="B4" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
@@ -5869,11 +5878,11 @@
       <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>23</v>
+      <c r="F4" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -5886,10 +5895,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>110</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
@@ -5900,11 +5909,11 @@
       <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>23</v>
+      <c r="F5" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -5917,10 +5926,10 @@
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>113</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
@@ -5931,11 +5940,11 @@
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>23</v>
+      <c r="F6" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -5948,10 +5957,10 @@
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>114</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
@@ -5962,11 +5971,11 @@
       <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>23</v>
+      <c r="F7" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -6234,20 +6243,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{5DB26C1F-5647-4580-A5FB-779B19C7FE42}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{A93F0EB5-CBD4-4DCB-B61A-3010C3F5E899}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{6BDC9CDE-F0A5-4B25-9B7E-0E9102E1A39C}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{D64EA58B-E337-49C0-AF1C-5C33D702CC23}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F4" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId7"/>
+    <hyperlink ref="F7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31F33E6-6169-4E2D-8B72-64D2A4550D11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -6274,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -6291,16 +6304,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -6316,13 +6329,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -6335,16 +6348,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -6357,16 +6370,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -6379,16 +6392,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -6401,16 +6414,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -6423,16 +6436,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -6445,16 +6458,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -6467,16 +6480,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -6489,20 +6502,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{9ECFBDA7-F582-45EA-B669-B4EE0C7E70C1}"/>
-    <hyperlink ref="E3:E9" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{CF2CF369-AB42-4802-AE0D-719993256B25}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{B50507F2-E54F-4758-A732-1A23FAEC214C}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3:E9" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26161D60-12B0-4ECB-A47F-6455138E07B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6524,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -6545,50 +6558,50 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>269</v>
+      <c r="E3" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="7"/>
       <c r="I3" s="12">
         <v>14621</v>
@@ -6601,16 +6614,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>269</v>
+      <c r="E4" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -6625,19 +6638,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>269</v>
+      <c r="E5" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
@@ -6645,30 +6658,30 @@
       <c r="G5" s="20"/>
       <c r="H5" s="6"/>
       <c r="I5" s="12" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>269</v>
+      <c r="E6" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -6681,19 +6694,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>269</v>
+      <c r="E7" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -6701,26 +6714,26 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="12" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>269</v>
+      <c r="E8" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
@@ -6728,26 +6741,26 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="12" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>269</v>
+      <c r="E9" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>
@@ -6755,26 +6768,26 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>269</v>
+      <c r="E10" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>21</v>
@@ -6782,26 +6795,26 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="12" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>269</v>
+      <c r="E11" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>21</v>
@@ -6809,35 +6822,35 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="12" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>199</v>
+      <c r="A13" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>190</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="7"/>
@@ -6849,20 +6862,20 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>266</v>
+      <c r="A14" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>269</v>
+      <c r="E14" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>21</v>
@@ -6870,20 +6883,20 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>201</v>
+      <c r="A15" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="7"/>
@@ -6895,20 +6908,20 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>266</v>
+      <c r="A16" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>269</v>
+      <c r="E16" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>21</v>
@@ -6916,26 +6929,26 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>266</v>
+      <c r="A17" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>269</v>
+      <c r="E17" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>21</v>
@@ -6943,26 +6956,26 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>266</v>
+      <c r="A18" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>269</v>
+      <c r="E18" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>21</v>
@@ -6970,26 +6983,26 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>266</v>
+      <c r="A19" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>269</v>
+      <c r="E19" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>21</v>
@@ -6997,20 +7010,20 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>206</v>
+      <c r="A20" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>197</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="7"/>
@@ -7022,20 +7035,20 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>266</v>
+      <c r="A21" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>269</v>
+      <c r="E21" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>21</v>
@@ -7043,26 +7056,26 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>266</v>
+      <c r="A22" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>269</v>
+      <c r="E22" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>21</v>
@@ -7070,26 +7083,26 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>266</v>
+      <c r="A23" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>269</v>
+      <c r="E23" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>21</v>
@@ -7097,26 +7110,26 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>266</v>
+      <c r="A24" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>269</v>
+      <c r="E24" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>21</v>
@@ -7124,26 +7137,26 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>266</v>
+      <c r="A25" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>269</v>
+      <c r="E25" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>21</v>
@@ -7151,20 +7164,20 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>212</v>
+      <c r="A26" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>203</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="7"/>
@@ -7176,20 +7189,20 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>266</v>
+      <c r="A27" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>269</v>
+      <c r="E27" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>21</v>
@@ -7197,26 +7210,26 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>266</v>
+      <c r="A28" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>269</v>
+      <c r="E28" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>21</v>
@@ -7224,26 +7237,26 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>266</v>
+      <c r="A29" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>269</v>
+      <c r="E29" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>21</v>
@@ -7251,26 +7264,26 @@
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>266</v>
+      <c r="A30" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>269</v>
+      <c r="E30" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>21</v>
@@ -7278,26 +7291,26 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>266</v>
+      <c r="A31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>269</v>
+      <c r="E31" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>21</v>
@@ -7305,26 +7318,26 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>266</v>
+      <c r="A32" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>269</v>
+      <c r="E32" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>21</v>
@@ -7332,26 +7345,26 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="12" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>266</v>
+      <c r="A33" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>269</v>
+      <c r="E33" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>21</v>
@@ -7359,26 +7372,26 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="12" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>266</v>
+      <c r="A34" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>269</v>
+      <c r="E34" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>21</v>
@@ -7386,26 +7399,26 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>266</v>
+      <c r="A35" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>269</v>
+      <c r="E35" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>21</v>
@@ -7413,26 +7426,26 @@
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>266</v>
+      <c r="A36" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>269</v>
+      <c r="E36" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>21</v>
@@ -7440,26 +7453,26 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>266</v>
+      <c r="A37" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>269</v>
+      <c r="E37" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>21</v>
@@ -7467,311 +7480,311 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="42" t="s">
+      <c r="D46" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="B47" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="D39" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C40" s="43" t="s">
+      <c r="D47" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="D40" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" s="43" t="s">
+      <c r="B48" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44" t="s">
+      <c r="D48" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42" s="43" t="s">
+      <c r="B49" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="D42" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C43" s="43" t="s">
+      <c r="C49" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="D43" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>289</v>
-      </c>
       <c r="D49" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>269</v>
+      <c r="E49" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>21</v>
@@ -7779,58 +7792,58 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="K49" s="43"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="J49" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="K49" s="44"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>294</v>
+      <c r="A52" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>282</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>269</v>
+      <c r="E52" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>21</v>
@@ -7838,50 +7851,32 @@
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>295</v>
+      <c r="A53" s="31" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>296</v>
+      <c r="A54" s="31" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{479D62C2-ABAC-49DF-9498-D04CF26FC170}"/>
-    <hyperlink ref="E4:E10" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{D3D1290E-F30C-40E8-B7EA-3EBAB32306C7}"/>
-    <hyperlink ref="E11" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{9A46A12C-91CF-4015-8C52-2B1C33F3F8FE}"/>
-    <hyperlink ref="E14:E20" r:id="rId4" display="https://qat01.frontier.com/" xr:uid="{8479A8F9-04A7-4C10-8B5B-8CFF19AEACB8}"/>
-    <hyperlink ref="E21" r:id="rId5" display="https://qat01.frontier.com/" xr:uid="{EC22EFF9-D540-4309-9EA9-39329B4E52FF}"/>
-    <hyperlink ref="E22" r:id="rId6" display="https://qat01.frontier.com/" xr:uid="{D03AC793-5637-44A0-8F0C-7C5613294980}"/>
-    <hyperlink ref="E23:E29" r:id="rId7" display="https://qat01.frontier.com/" xr:uid="{0E9D07F8-0339-46A8-995F-C18741555C4D}"/>
-    <hyperlink ref="E30" r:id="rId8" display="https://qat01.frontier.com/" xr:uid="{F12A855D-DD36-4D51-84F2-9E4AF7D2812B}"/>
-    <hyperlink ref="E31" r:id="rId9" display="https://qat01.frontier.com/" xr:uid="{0AB9B774-7953-437D-B5A3-37CD3177403C}"/>
-    <hyperlink ref="E32" r:id="rId10" display="https://qat01.frontier.com/" xr:uid="{65ED462F-1470-4391-BA80-0FC45BFFF970}"/>
-    <hyperlink ref="E33" r:id="rId11" display="https://qat01.frontier.com/" xr:uid="{63E4D541-0107-4929-BF87-C89F644F82AD}"/>
-    <hyperlink ref="E34" r:id="rId12" display="https://qat01.frontier.com/" xr:uid="{762ED126-7A59-42F7-95E9-A71B66315119}"/>
-    <hyperlink ref="E35" r:id="rId13" display="https://qat01.frontier.com/" xr:uid="{3DA19BBA-EE64-46E5-B66C-4EDEFC19B616}"/>
-    <hyperlink ref="E36" r:id="rId14" display="https://qat01.frontier.com/" xr:uid="{EF34205F-33D1-40FC-A487-029E17546B2F}"/>
-    <hyperlink ref="E37" r:id="rId15" display="https://qat01.frontier.com/" xr:uid="{3EB21977-E9B3-4927-8085-774D0366FE5B}"/>
-    <hyperlink ref="E39" r:id="rId16" xr:uid="{A5599313-7C7C-4561-BADE-A97E01CDFA84}"/>
-    <hyperlink ref="E40" r:id="rId17" display="https://qat01.frontier.com/" xr:uid="{597BA0B3-39B5-43D5-A4DF-BA2ABE6F9DF2}"/>
-    <hyperlink ref="E41" r:id="rId18" display="https://qat01.frontier.com/" xr:uid="{B283410C-F4F6-4994-84B6-07242FF21D99}"/>
-    <hyperlink ref="E42" r:id="rId19" display="https://qat01.frontier.com/" xr:uid="{CABC1A77-AC4C-4A60-A5E3-26E5AC928852}"/>
-    <hyperlink ref="E43" r:id="rId20" display="https://qat01.frontier.com/" xr:uid="{180BA600-24DC-4F01-AE41-7048325407FA}"/>
-    <hyperlink ref="E44" r:id="rId21" display="https://qat01.frontier.com/" xr:uid="{3A94E5F4-9685-4C86-86A5-54068B1FC53A}"/>
-    <hyperlink ref="E45" r:id="rId22" xr:uid="{C2846729-708B-4AF1-B016-CF8DF74BC459}"/>
-    <hyperlink ref="E46" r:id="rId23" display="https://qat01.frontier.com/" xr:uid="{F1F7F61E-C92D-4F3C-9A42-5A75C3C35AB8}"/>
-    <hyperlink ref="E47" r:id="rId24" display="https://qat01.frontier.com/" xr:uid="{2294B840-EF06-457A-B1F7-154BC44A9A86}"/>
-    <hyperlink ref="E48" r:id="rId25" display="https://qat01.frontier.com/" xr:uid="{0A7C123E-4E14-47D8-B09D-729ED7AF84B9}"/>
-    <hyperlink ref="E49" r:id="rId26" display="https://qat01.frontier.com/" xr:uid="{FB995167-94D8-4C29-B58C-06D3FF22A1EF}"/>
-    <hyperlink ref="E52" r:id="rId27" display="https://qat01.frontier.com/" xr:uid="{36EBD02C-0CB2-440B-864A-DA26D7C4E6D1}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E23:E29" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E4:E11" r:id="rId3" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E14" r:id="rId4"/>
+    <hyperlink ref="E16:E19" r:id="rId5" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E21:E25" r:id="rId6" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E27:E37" r:id="rId7" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E39:E49" r:id="rId8" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E52" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>